--- a/Paper_HEx_AMR/HEx_Results.xlsx
+++ b/Paper_HEx_AMR/HEx_Results.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Jupyter\Paper_HEx_AMR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha4" sheetId="4" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId3"/>
+    <sheet name="Data" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="30">
   <si>
     <t>Test</t>
   </si>
@@ -80,6 +83,42 @@
   <si>
     <t>Test3</t>
   </si>
+  <si>
+    <t>Re_w[-]</t>
+  </si>
+  <si>
+    <t>ReDp_CB[-]</t>
+  </si>
+  <si>
+    <t>ReDp_HB[-]</t>
+  </si>
+  <si>
+    <t>dPCB[kPa]</t>
+  </si>
+  <si>
+    <t>dPHB[kPa]</t>
+  </si>
+  <si>
+    <t>Tspan [K]</t>
+  </si>
+  <si>
+    <t>Qc[W]</t>
+  </si>
+  <si>
+    <t>Qh[W]</t>
+  </si>
+  <si>
+    <t>Wpump[W]</t>
+  </si>
+  <si>
+    <t>Wvalv[W]</t>
+  </si>
+  <si>
+    <t>Wmotor[W]</t>
+  </si>
+  <si>
+    <t>COP[-]</t>
+  </si>
 </sst>
 </file>
 
@@ -114,8 +153,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,10 +253,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Planilha2!$B$4:$B$12</c:f>
+              <c:f>Planilha2!$B$4:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>5.0843311794001367E-2</c:v>
                 </c:pt>
@@ -225,21 +267,24 @@
                   <c:v>9.9689159560224616E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.12258161232690723</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.15089155943323662</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.19667345647669798</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.24955010852113035</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.50619105735394543</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.75179217030317935</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.99490136985639299</c:v>
                 </c:pt>
               </c:numCache>
@@ -247,10 +292,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Planilha2!$D$4:$D$12</c:f>
+              <c:f>Planilha2!$D$4:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>37.94746179871953</c:v>
                 </c:pt>
@@ -261,22 +306,25 @@
                   <c:v>52.019838038732011</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>55.737452274604628</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>59.630554147226967</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>63.667453796574343</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>66.759680935049474</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>73.873869526920842</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>78.303439945741189</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>77.127066826634817</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.303439945741189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -303,6 +351,7 @@
         <c:axId val="439812184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -365,6 +414,7 @@
         <c:axId val="439817104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="35"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -468,7 +518,390 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha2!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0843311794001367E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5328264261367961E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9689159560224616E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12258161232690723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15089155943323662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19667345647669798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24955010852113035</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50619105735394543</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75179217030317935</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99490136985639299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha2!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30.687559741203781</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.478717816108304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.009629155131325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.027007761627061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.172110367661812</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.154427087865734</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.372791450638402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.774023087995868</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.034609964937562</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.766224346593038</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F740-453A-84C2-FC75D84BE0DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="574892912"/>
+        <c:axId val="574889304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="574892912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574889304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="574889304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574892912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1024,20 +1457,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1051,6 +2000,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1322,10 +2301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3139,6 +4118,172 @@
         <v>297.46396589</v>
       </c>
     </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="1">
+        <v>80</v>
+      </c>
+      <c r="C56" s="1">
+        <v>80</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="H56" s="1">
+        <v>19.46743683</v>
+      </c>
+      <c r="I56" s="1">
+        <v>25.767116819999998</v>
+      </c>
+      <c r="J56" s="1">
+        <v>58.641350009999996</v>
+      </c>
+      <c r="K56" s="1">
+        <v>73.96573574</v>
+      </c>
+      <c r="L56" s="1">
+        <v>275.77201979</v>
+      </c>
+      <c r="M56" s="1">
+        <v>275.99598026000001</v>
+      </c>
+      <c r="N56" s="1">
+        <v>300.98864624999999</v>
+      </c>
+      <c r="O56" s="1">
+        <v>300.62218014000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57">
+        <v>20</v>
+      </c>
+      <c r="I57">
+        <f>(H57-H56)/(H58-H56)*(I58-I56)+I56</f>
+        <v>26.027007761627061</v>
+      </c>
+      <c r="J57">
+        <f>(H57-H56)/(H58-H56)*(J58-J56)+J56</f>
+        <v>55.737452274604628</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="1">
+        <v>80</v>
+      </c>
+      <c r="C58" s="1">
+        <v>80</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.26989999999999997</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.26989999999999997</v>
+      </c>
+      <c r="H58" s="1">
+        <v>24.69297809</v>
+      </c>
+      <c r="I58" s="1">
+        <v>28.317182079999998</v>
+      </c>
+      <c r="J58" s="1">
+        <v>30.148134020000001</v>
+      </c>
+      <c r="K58" s="1">
+        <v>46.066983970000003</v>
+      </c>
+      <c r="L58" s="1">
+        <v>271.90459010000001</v>
+      </c>
+      <c r="M58" s="1">
+        <v>272.02617839999999</v>
+      </c>
+      <c r="N58" s="1">
+        <v>299.57831748000001</v>
+      </c>
+      <c r="O58" s="1">
+        <v>299.28968636000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3146,10 +4291,2446 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D12"/>
+  <dimension ref="A1:AH60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="AG6" sqref="AG6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="C2">
+        <v>8.3562999999999992</v>
+      </c>
+      <c r="D2">
+        <v>8.3562999999999992</v>
+      </c>
+      <c r="E2">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="G2">
+        <v>36.809922919999998</v>
+      </c>
+      <c r="H2">
+        <v>-36.851616300000003</v>
+      </c>
+      <c r="I2">
+        <v>15.931175339999999</v>
+      </c>
+      <c r="J2">
+        <v>30.090454569999999</v>
+      </c>
+      <c r="K2">
+        <v>53.046993329999999</v>
+      </c>
+      <c r="L2">
+        <v>66.458498719999994</v>
+      </c>
+      <c r="M2">
+        <v>4.1506558</v>
+      </c>
+      <c r="N2">
+        <v>46.63022222</v>
+      </c>
+      <c r="O2">
+        <v>2.99608067</v>
+      </c>
+      <c r="P2">
+        <v>0.98640000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <f>(I3-I2)/(I4-I2)*(J4-J2)+J2</f>
+        <v>30.687559741203781</v>
+      </c>
+      <c r="K3">
+        <f>(I3-I2)/(I4-I2)*(K4-K2)+K2</f>
+        <v>37.94746179871953</v>
+      </c>
+      <c r="L3">
+        <f>(J3-J2)/(J4-J2)*(L4-L2)+L2</f>
+        <v>52.212784324977491</v>
+      </c>
+      <c r="M3">
+        <f>(K3-K2)/(K4-K2)*(M4-M2)+M2</f>
+        <v>4.2917600801502989</v>
+      </c>
+      <c r="O3">
+        <f>(M3-M2)/(M4-M2)*(O4-O2)+O2</f>
+        <v>2.570380208224865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>0.13159999999999999</v>
+      </c>
+      <c r="C4">
+        <v>7.8194999999999997</v>
+      </c>
+      <c r="D4">
+        <v>7.8194999999999997</v>
+      </c>
+      <c r="E4">
+        <v>0.26989999999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.26989999999999997</v>
+      </c>
+      <c r="G4">
+        <v>38.971387460000003</v>
+      </c>
+      <c r="H4">
+        <v>-39.013188020000001</v>
+      </c>
+      <c r="I4">
+        <v>22.8588004</v>
+      </c>
+      <c r="J4">
+        <v>31.10709232</v>
+      </c>
+      <c r="K4">
+        <v>27.33836694</v>
+      </c>
+      <c r="L4">
+        <v>42.203590660000003</v>
+      </c>
+      <c r="M4">
+        <v>4.3909014800000001</v>
+      </c>
+      <c r="N4">
+        <v>46.63022222</v>
+      </c>
+      <c r="O4">
+        <v>2.2712784400000001</v>
+      </c>
+      <c r="P4">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="S4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>0.1229</v>
+      </c>
+      <c r="C5">
+        <v>7.2962999999999996</v>
+      </c>
+      <c r="D5">
+        <v>7.2962999999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.26960000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.26960000000000001</v>
+      </c>
+      <c r="G5">
+        <v>41.388559989999997</v>
+      </c>
+      <c r="H5">
+        <v>-41.43048812</v>
+      </c>
+      <c r="I5">
+        <v>29.37866082</v>
+      </c>
+      <c r="J5">
+        <v>32.424254519999998</v>
+      </c>
+      <c r="K5">
+        <v>5.1781267</v>
+      </c>
+      <c r="L5">
+        <v>20.36845795</v>
+      </c>
+      <c r="M5">
+        <v>4.6600329699999996</v>
+      </c>
+      <c r="N5">
+        <v>46.63022222</v>
+      </c>
+      <c r="O5">
+        <v>0.56632294999999999</v>
+      </c>
+      <c r="P5">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="U5">
+        <v>8.3562999999999992</v>
+      </c>
+      <c r="V5">
+        <v>8.3562999999999992</v>
+      </c>
+      <c r="W5">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="X5">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="Y5">
+        <v>36.809922919999998</v>
+      </c>
+      <c r="Z5">
+        <v>-36.851616300000003</v>
+      </c>
+      <c r="AA5">
+        <v>14.588943909999999</v>
+      </c>
+      <c r="AB5">
+        <v>31.730392269999999</v>
+      </c>
+      <c r="AC5">
+        <v>49.634124579999998</v>
+      </c>
+      <c r="AD5">
+        <v>62.224029950000002</v>
+      </c>
+      <c r="AE5">
+        <v>4.1506558</v>
+      </c>
+      <c r="AF5">
+        <v>46.63022222</v>
+      </c>
+      <c r="AG5">
+        <v>2.55497957</v>
+      </c>
+      <c r="AH5">
+        <v>0.93059999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AA6">
+        <v>20</v>
+      </c>
+      <c r="AB6">
+        <f>(AA6-AA5)/(AA7-AA5)*(AB7-AB5)+AB5</f>
+        <v>32.115476507150689</v>
+      </c>
+      <c r="AC6">
+        <f>(AA6-AA5)/(AA7-AA5)*(AC7-AC5)+AC5</f>
+        <v>32.567757365060004</v>
+      </c>
+      <c r="AD6">
+        <f>(AB6-AB5)/(AB7-AB5)*(AD7-AD5)+AD5</f>
+        <v>46.441963097647786</v>
+      </c>
+      <c r="AE6">
+        <f>(AC6-AC5)/(AC7-AC5)*(AE7-AE5)+AE5</f>
+        <v>4.3233432875830502</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" ref="AF6:AG6" si="0">(AD6-AD5)/(AD7-AD5)*(AF7-AF5)+AF5</f>
+        <v>46.63022222</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="0"/>
+        <v>2.2104246900597877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7">
+        <v>0.13159999999999999</v>
+      </c>
+      <c r="U7">
+        <v>7.8194999999999997</v>
+      </c>
+      <c r="V7">
+        <v>7.8194999999999997</v>
+      </c>
+      <c r="W7">
+        <v>0.26989999999999997</v>
+      </c>
+      <c r="X7">
+        <v>0.26989999999999997</v>
+      </c>
+      <c r="Y7">
+        <v>38.971387460000003</v>
+      </c>
+      <c r="Z7">
+        <v>-39.013188020000001</v>
+      </c>
+      <c r="AA7">
+        <v>22.11689436</v>
+      </c>
+      <c r="AB7">
+        <v>32.26612781</v>
+      </c>
+      <c r="AC7">
+        <v>25.89111312</v>
+      </c>
+      <c r="AD7">
+        <v>40.267758329999999</v>
+      </c>
+      <c r="AE7">
+        <v>4.3909014800000001</v>
+      </c>
+      <c r="AF7">
+        <v>46.63022222</v>
+      </c>
+      <c r="AG7">
+        <v>2.0756291400000002</v>
+      </c>
+      <c r="AH7">
+        <v>0.48759999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="C8">
+        <v>8.3562999999999992</v>
+      </c>
+      <c r="D8">
+        <v>8.3562999999999992</v>
+      </c>
+      <c r="E8">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="F8">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="G8">
+        <v>36.809922919999998</v>
+      </c>
+      <c r="H8">
+        <v>-36.851616300000003</v>
+      </c>
+      <c r="I8">
+        <v>18.846045570000001</v>
+      </c>
+      <c r="J8">
+        <v>26.53736061</v>
+      </c>
+      <c r="K8">
+        <v>57.902203100000001</v>
+      </c>
+      <c r="L8">
+        <v>72.927573379999998</v>
+      </c>
+      <c r="M8">
+        <v>4.1506558</v>
+      </c>
+      <c r="N8">
+        <v>46.63022222</v>
+      </c>
+      <c r="O8">
+        <v>3.9090528400000002</v>
+      </c>
+      <c r="P8">
+        <v>1.0587</v>
+      </c>
+      <c r="S8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8">
+        <v>0.1229</v>
+      </c>
+      <c r="U8">
+        <v>7.2962999999999996</v>
+      </c>
+      <c r="V8">
+        <v>7.2962999999999996</v>
+      </c>
+      <c r="W8">
+        <v>0.26960000000000001</v>
+      </c>
+      <c r="X8">
+        <v>0.26960000000000001</v>
+      </c>
+      <c r="Y8">
+        <v>41.388559989999997</v>
+      </c>
+      <c r="Z8">
+        <v>-41.43048812</v>
+      </c>
+      <c r="AA8">
+        <v>29.276811309999999</v>
+      </c>
+      <c r="AB8">
+        <v>33.005018370000002</v>
+      </c>
+      <c r="AC8">
+        <v>4.5873731900000001</v>
+      </c>
+      <c r="AD8">
+        <v>19.580409970000002</v>
+      </c>
+      <c r="AE8">
+        <v>4.6600329699999996</v>
+      </c>
+      <c r="AF8">
+        <v>46.63022222</v>
+      </c>
+      <c r="AG8">
+        <v>0.49978441000000001</v>
+      </c>
+      <c r="AH8">
+        <v>8.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <f>(I9-I8)/(I10-I8)*(J10-J8)+J8</f>
+        <v>27.009629155131325</v>
+      </c>
+      <c r="K9">
+        <f>(I9-I8)/(I10-I8)*(K10-K8)+K8</f>
+        <v>52.019838038732011</v>
+      </c>
+      <c r="L9">
+        <f>(J9-J8)/(J10-J8)*(L10-L8)+L8</f>
+        <v>67.198228434730709</v>
+      </c>
+      <c r="M9">
+        <f>(K9-K8)/(K10-K8)*(M10-M8)+M8</f>
+        <v>4.2007994465205503</v>
+      </c>
+      <c r="O9">
+        <f>(M9-M8)/(M10-M8)*(O10-O8)+O8</f>
+        <v>3.6457211736522885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>0.13159999999999999</v>
+      </c>
+      <c r="C10">
+        <v>7.8194999999999997</v>
+      </c>
+      <c r="D10">
+        <v>7.8194999999999997</v>
+      </c>
+      <c r="E10">
+        <v>0.26989999999999997</v>
+      </c>
+      <c r="F10">
+        <v>0.26989999999999997</v>
+      </c>
+      <c r="G10">
+        <v>38.971387460000003</v>
+      </c>
+      <c r="H10">
+        <v>-39.013188020000001</v>
+      </c>
+      <c r="I10">
+        <v>24.374813140000001</v>
+      </c>
+      <c r="J10">
+        <v>28.800069560000001</v>
+      </c>
+      <c r="K10">
+        <v>29.718915840000001</v>
+      </c>
+      <c r="L10">
+        <v>45.477428289999999</v>
+      </c>
+      <c r="M10">
+        <v>4.3909014800000001</v>
+      </c>
+      <c r="N10">
+        <v>46.63022222</v>
+      </c>
+      <c r="O10">
+        <v>2.6473916000000002</v>
+      </c>
+      <c r="P10">
+        <v>0.55369999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>0.1229</v>
+      </c>
+      <c r="C11">
+        <v>7.2962999999999996</v>
+      </c>
+      <c r="D11">
+        <v>7.2962999999999996</v>
+      </c>
+      <c r="E11">
+        <v>0.26960000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.26960000000000001</v>
+      </c>
+      <c r="G11">
+        <v>41.388559989999997</v>
+      </c>
+      <c r="H11">
+        <v>-41.43048812</v>
+      </c>
+      <c r="I11">
+        <v>29.646713330000001</v>
+      </c>
+      <c r="J11">
+        <v>31.30346389</v>
+      </c>
+      <c r="K11">
+        <v>6.2397850699999999</v>
+      </c>
+      <c r="L11">
+        <v>21.783286069999999</v>
+      </c>
+      <c r="M11">
+        <v>4.6600329699999996</v>
+      </c>
+      <c r="N11">
+        <v>46.63022222</v>
+      </c>
+      <c r="O11">
+        <v>0.68934918000000001</v>
+      </c>
+      <c r="P11">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0.14280000000000001</v>
+      </c>
+      <c r="C14">
+        <v>8.4923999999999999</v>
+      </c>
+      <c r="D14">
+        <v>8.4923999999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="F14">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="G14">
+        <v>36.305871160000002</v>
+      </c>
+      <c r="H14">
+        <v>-36.347540680000002</v>
+      </c>
+      <c r="I14">
+        <v>18.704298659999999</v>
+      </c>
+      <c r="J14">
+        <v>24.467958039999999</v>
+      </c>
+      <c r="K14">
+        <v>67.444153999999997</v>
+      </c>
+      <c r="L14">
+        <v>82.68723937</v>
+      </c>
+      <c r="M14">
+        <v>4.0946938399999997</v>
+      </c>
+      <c r="N14">
+        <v>46.63022222</v>
+      </c>
+      <c r="O14">
+        <v>4.5167025199999999</v>
+      </c>
+      <c r="P14">
+        <v>1.2209000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <f>(I15-I14)/(I16-I14)*(J16-J14)+J14</f>
+        <v>25.172110367661812</v>
+      </c>
+      <c r="K15">
+        <f>(I15-I14)/(I16-I14)*(K16-K14)+K14</f>
+        <v>59.630554147226967</v>
+      </c>
+      <c r="L15">
+        <f>(J15-J14)/(J16-J14)*(L16-L14)+L14</f>
+        <v>75.075513010205739</v>
+      </c>
+      <c r="M15">
+        <f>(K15-K14)/(K16-K14)*(M16-M14)+M14</f>
+        <v>4.154875504576669</v>
+      </c>
+      <c r="O15">
+        <f>(M15-M14)/(M16-M14)*(O16-O14)+O14</f>
+        <v>4.1805248950722991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.1338</v>
+      </c>
+      <c r="C16">
+        <v>7.9524999999999997</v>
+      </c>
+      <c r="D16">
+        <v>7.9524999999999997</v>
+      </c>
+      <c r="E16">
+        <v>0.27</v>
+      </c>
+      <c r="F16">
+        <v>0.27</v>
+      </c>
+      <c r="G16">
+        <v>38.408300429999997</v>
+      </c>
+      <c r="H16">
+        <v>-38.45007236</v>
+      </c>
+      <c r="I16">
+        <v>23.733250559999998</v>
+      </c>
+      <c r="J16">
+        <v>27.200955279999999</v>
+      </c>
+      <c r="K16">
+        <v>37.117552789999998</v>
+      </c>
+      <c r="L16">
+        <v>53.14416138</v>
+      </c>
+      <c r="M16">
+        <v>4.3282744400000004</v>
+      </c>
+      <c r="N16">
+        <v>46.63022222</v>
+      </c>
+      <c r="O16">
+        <v>3.2119102399999999</v>
+      </c>
+      <c r="P16">
+        <v>0.68520000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0.12509999999999999</v>
+      </c>
+      <c r="C17">
+        <v>7.4257</v>
+      </c>
+      <c r="D17">
+        <v>7.4257</v>
+      </c>
+      <c r="E17">
+        <v>0.2697</v>
+      </c>
+      <c r="F17">
+        <v>0.2697</v>
+      </c>
+      <c r="G17">
+        <v>40.758484750000001</v>
+      </c>
+      <c r="H17">
+        <v>-40.800378950000002</v>
+      </c>
+      <c r="I17">
+        <v>28.57594894</v>
+      </c>
+      <c r="J17">
+        <v>30.128655729999998</v>
+      </c>
+      <c r="K17">
+        <v>12.243437849999999</v>
+      </c>
+      <c r="L17">
+        <v>28.065895999999999</v>
+      </c>
+      <c r="M17">
+        <v>4.5898360399999998</v>
+      </c>
+      <c r="N17">
+        <v>46.63022222</v>
+      </c>
+      <c r="O17">
+        <v>1.2985769199999999</v>
+      </c>
+      <c r="P17">
+        <v>0.2331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>0.14280000000000001</v>
+      </c>
+      <c r="C21">
+        <v>8.4923999999999999</v>
+      </c>
+      <c r="D21">
+        <v>8.4923999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="F21">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="G21">
+        <v>36.305871160000002</v>
+      </c>
+      <c r="H21">
+        <v>-36.347540680000002</v>
+      </c>
+      <c r="I21">
+        <v>19.320263870000002</v>
+      </c>
+      <c r="J21">
+        <v>23.725528560000001</v>
+      </c>
+      <c r="K21">
+        <v>68.035638149999997</v>
+      </c>
+      <c r="L21">
+        <v>83.545880310000001</v>
+      </c>
+      <c r="M21">
+        <v>4.0946938399999997</v>
+      </c>
+      <c r="N21">
+        <v>46.63022222</v>
+      </c>
+      <c r="O21">
+        <v>4.71676377</v>
+      </c>
+      <c r="P21">
+        <v>1.2272000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <f>(I22-I21)/(I23-I21)*(J23-J21)+J21</f>
+        <v>24.154427087865734</v>
+      </c>
+      <c r="K22">
+        <f>(I22-I21)/(I23-I21)*(K23-K21)+K21</f>
+        <v>63.667453796574343</v>
+      </c>
+      <c r="L22">
+        <f>(J22-J21)/(J23-J21)*(L23-L21)+L21</f>
+        <v>79.273673172123054</v>
+      </c>
+      <c r="M22">
+        <f>(K22-K21)/(K23-K21)*(M23-M21)+M21</f>
+        <v>4.1281089282263137</v>
+      </c>
+      <c r="O22">
+        <f>(M22-M21)/(M23-M21)*(O23-O21)+O21</f>
+        <v>4.5134344017201942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>0.1338</v>
+      </c>
+      <c r="C23">
+        <v>7.9524999999999997</v>
+      </c>
+      <c r="D23">
+        <v>7.9524999999999997</v>
+      </c>
+      <c r="E23">
+        <v>0.27</v>
+      </c>
+      <c r="F23">
+        <v>0.27</v>
+      </c>
+      <c r="G23">
+        <v>38.408300429999997</v>
+      </c>
+      <c r="H23">
+        <v>-38.45007236</v>
+      </c>
+      <c r="I23">
+        <v>24.071805210000001</v>
+      </c>
+      <c r="J23">
+        <v>26.723646500000001</v>
+      </c>
+      <c r="K23">
+        <v>37.50083557</v>
+      </c>
+      <c r="L23">
+        <v>53.681984700000001</v>
+      </c>
+      <c r="M23">
+        <v>4.3282744400000004</v>
+      </c>
+      <c r="N23">
+        <v>46.63022222</v>
+      </c>
+      <c r="O23">
+        <v>3.2954359100000001</v>
+      </c>
+      <c r="P23">
+        <v>0.69120000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>0.12509999999999999</v>
+      </c>
+      <c r="C24">
+        <v>7.4257</v>
+      </c>
+      <c r="D24">
+        <v>7.4257</v>
+      </c>
+      <c r="E24">
+        <v>0.2697</v>
+      </c>
+      <c r="F24">
+        <v>0.2697</v>
+      </c>
+      <c r="G24">
+        <v>40.758484750000001</v>
+      </c>
+      <c r="H24">
+        <v>-40.800378950000002</v>
+      </c>
+      <c r="I24">
+        <v>28.687190080000001</v>
+      </c>
+      <c r="J24">
+        <v>29.877106349999998</v>
+      </c>
+      <c r="K24">
+        <v>12.45795508</v>
+      </c>
+      <c r="L24">
+        <v>28.351610820000001</v>
+      </c>
+      <c r="M24">
+        <v>4.5898360399999998</v>
+      </c>
+      <c r="N24">
+        <v>46.63022222</v>
+      </c>
+      <c r="O24">
+        <v>1.32702089</v>
+      </c>
+      <c r="P24">
+        <v>0.23710000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>0.14280000000000001</v>
+      </c>
+      <c r="C27">
+        <v>8.4923999999999999</v>
+      </c>
+      <c r="D27">
+        <v>8.4923999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="F27">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="G27">
+        <v>36.305871160000002</v>
+      </c>
+      <c r="H27">
+        <v>-36.347540680000002</v>
+      </c>
+      <c r="I27">
+        <v>19.754005979999999</v>
+      </c>
+      <c r="J27">
+        <v>23.200794519999999</v>
+      </c>
+      <c r="K27">
+        <v>68.414597200000003</v>
+      </c>
+      <c r="L27">
+        <v>84.106984629999999</v>
+      </c>
+      <c r="M27">
+        <v>4.0946938399999997</v>
+      </c>
+      <c r="N27">
+        <v>46.63022222</v>
+      </c>
+      <c r="O27">
+        <v>4.8570775199999998</v>
+      </c>
+      <c r="P27">
+        <v>1.2309000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <f>(I28-I27)/(I29-I27)*(J29-J27)+J27</f>
+        <v>23.372791450638402</v>
+      </c>
+      <c r="K28">
+        <f>(I28-I27)/(I29-I27)*(K29-K27)+K27</f>
+        <v>66.759680935049474</v>
+      </c>
+      <c r="L28">
+        <f>(J28-J27)/(J29-J27)*(L29-L27)+L27</f>
+        <v>82.483969105952582</v>
+      </c>
+      <c r="M28">
+        <f>(K28-K27)/(K29-K27)*(M29-M27)+M27</f>
+        <v>4.1073039062547503</v>
+      </c>
+      <c r="O28">
+        <f>(M28-M27)/(M29-M27)*(O29-O27)+O27</f>
+        <v>4.7759356144959497</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>0.1338</v>
+      </c>
+      <c r="C29">
+        <v>7.9524999999999997</v>
+      </c>
+      <c r="D29">
+        <v>7.9524999999999997</v>
+      </c>
+      <c r="E29">
+        <v>0.27</v>
+      </c>
+      <c r="F29">
+        <v>0.27</v>
+      </c>
+      <c r="G29">
+        <v>38.408300429999997</v>
+      </c>
+      <c r="H29">
+        <v>-38.45007236</v>
+      </c>
+      <c r="I29">
+        <v>24.310637929999999</v>
+      </c>
+      <c r="J29">
+        <v>26.386752900000001</v>
+      </c>
+      <c r="K29">
+        <v>37.760013290000003</v>
+      </c>
+      <c r="L29">
+        <v>54.043309129999997</v>
+      </c>
+      <c r="M29">
+        <v>4.3282744400000004</v>
+      </c>
+      <c r="N29">
+        <v>46.63022222</v>
+      </c>
+      <c r="O29">
+        <v>3.3540580599999998</v>
+      </c>
+      <c r="P29">
+        <v>0.69520000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>0.12509999999999999</v>
+      </c>
+      <c r="C30">
+        <v>7.4257</v>
+      </c>
+      <c r="D30">
+        <v>7.4257</v>
+      </c>
+      <c r="E30">
+        <v>0.2697</v>
+      </c>
+      <c r="F30">
+        <v>0.2697</v>
+      </c>
+      <c r="G30">
+        <v>40.758484750000001</v>
+      </c>
+      <c r="H30">
+        <v>-40.800378950000002</v>
+      </c>
+      <c r="I30">
+        <v>28.766589119999999</v>
+      </c>
+      <c r="J30">
+        <v>29.699688890000001</v>
+      </c>
+      <c r="K30">
+        <v>12.606465760000001</v>
+      </c>
+      <c r="L30">
+        <v>28.549590769999998</v>
+      </c>
+      <c r="M30">
+        <v>4.5898360399999998</v>
+      </c>
+      <c r="N30">
+        <v>46.63022222</v>
+      </c>
+      <c r="O30">
+        <v>1.346954</v>
+      </c>
+      <c r="P30">
+        <v>0.23980000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" t="s">
+        <v>28</v>
+      </c>
+      <c r="P32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="C33">
+        <v>8.6292000000000009</v>
+      </c>
+      <c r="D33">
+        <v>8.6292000000000009</v>
+      </c>
+      <c r="E33">
+        <v>0.27039999999999997</v>
+      </c>
+      <c r="F33">
+        <v>0.27039999999999997</v>
+      </c>
+      <c r="G33">
+        <v>35.815448510000003</v>
+      </c>
+      <c r="H33">
+        <v>-35.857095280000003</v>
+      </c>
+      <c r="I33">
+        <v>19.49779831</v>
+      </c>
+      <c r="J33">
+        <v>21.359793119999999</v>
+      </c>
+      <c r="K33">
+        <v>77.998372860000003</v>
+      </c>
+      <c r="L33">
+        <v>93.686054299999995</v>
+      </c>
+      <c r="M33">
+        <v>4.0402698399999997</v>
+      </c>
+      <c r="N33">
+        <v>46.63022222</v>
+      </c>
+      <c r="O33">
+        <v>5.4606266400000001</v>
+      </c>
+      <c r="P33">
+        <v>1.3895999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>20</v>
+      </c>
+      <c r="J34">
+        <f>(I34-I33)/(I35-I33)*(J35-J33)+J33</f>
+        <v>21.774023087995868</v>
+      </c>
+      <c r="K34">
+        <f>(I34-I33)/(I35-I33)*(K35-K33)+K33</f>
+        <v>73.873869526920842</v>
+      </c>
+      <c r="L34">
+        <f>(J34-J33)/(J35-J33)*(L35-L33)+L33</f>
+        <v>89.690184262439033</v>
+      </c>
+      <c r="M34">
+        <f>(K34-K33)/(K35-K33)*(M35-M33)+M33</f>
+        <v>4.0665238785365529</v>
+      </c>
+      <c r="O34">
+        <f>(M34-M33)/(M35-M33)*(O35-O33)+O33</f>
+        <v>5.2898015271415861</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="C35">
+        <v>8.3562999999999992</v>
+      </c>
+      <c r="D35">
+        <v>8.3562999999999992</v>
+      </c>
+      <c r="E35">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="F35">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="G35">
+        <v>36.809922919999998</v>
+      </c>
+      <c r="H35">
+        <v>-36.851616300000003</v>
+      </c>
+      <c r="I35">
+        <v>21.60932167</v>
+      </c>
+      <c r="J35">
+        <v>23.101436509999999</v>
+      </c>
+      <c r="K35">
+        <v>60.656764279999997</v>
+      </c>
+      <c r="L35">
+        <v>76.885288599999996</v>
+      </c>
+      <c r="M35">
+        <v>4.1506558</v>
+      </c>
+      <c r="N35">
+        <v>46.63022222</v>
+      </c>
+      <c r="O35">
+        <v>4.7423868899999997</v>
+      </c>
+      <c r="P35">
+        <v>1.0925</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <v>0.1361</v>
+      </c>
+      <c r="C36">
+        <v>8.0862999999999996</v>
+      </c>
+      <c r="D36">
+        <v>8.0862999999999996</v>
+      </c>
+      <c r="E36">
+        <v>0.27010000000000001</v>
+      </c>
+      <c r="F36">
+        <v>0.27010000000000001</v>
+      </c>
+      <c r="G36">
+        <v>37.860678749999998</v>
+      </c>
+      <c r="H36">
+        <v>-37.902423310000003</v>
+      </c>
+      <c r="I36">
+        <v>23.70797301</v>
+      </c>
+      <c r="J36">
+        <v>24.869737959999998</v>
+      </c>
+      <c r="K36">
+        <v>45.297774990000001</v>
+      </c>
+      <c r="L36">
+        <v>61.75168575</v>
+      </c>
+      <c r="M36">
+        <v>4.2673939699999996</v>
+      </c>
+      <c r="N36">
+        <v>46.63022222</v>
+      </c>
+      <c r="O36">
+        <v>3.91523749</v>
+      </c>
+      <c r="P36">
+        <v>0.82640000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="C39">
+        <v>8.3562999999999992</v>
+      </c>
+      <c r="D39">
+        <v>8.3562999999999992</v>
+      </c>
+      <c r="E39">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="F39">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="G39">
+        <v>36.809922919999998</v>
+      </c>
+      <c r="H39">
+        <v>-36.851616300000003</v>
+      </c>
+      <c r="I39">
+        <v>17.792379489999998</v>
+      </c>
+      <c r="J39">
+        <v>27.823648410000001</v>
+      </c>
+      <c r="K39">
+        <v>56.457648749999997</v>
+      </c>
+      <c r="L39">
+        <v>70.925666300000003</v>
+      </c>
+      <c r="M39">
+        <v>4.1506558</v>
+      </c>
+      <c r="N39">
+        <v>46.63022222</v>
+      </c>
+      <c r="O39">
+        <v>3.5848986200000001</v>
+      </c>
+      <c r="P39">
+        <v>1.0385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>20</v>
+      </c>
+      <c r="J40">
+        <f>(I40-I39)/(I41-I39)*(J41-J39)+J39</f>
+        <v>28.478717816108304</v>
+      </c>
+      <c r="K40">
+        <f>(I40-I39)/(I41-I39)*(K41-K39)+K39</f>
+        <v>46.403837345715175</v>
+      </c>
+      <c r="L40">
+        <f>(J40-J39)/(J41-J39)*(L41-L39)+L39</f>
+        <v>61.236835461148232</v>
+      </c>
+      <c r="M40">
+        <f>(K40-K39)/(K41-K39)*(M41-M39)+M39</f>
+        <v>4.2384402076811281</v>
+      </c>
+      <c r="O40">
+        <f>(M40-M39)/(M41-M39)*(O41-O39)+O39</f>
+        <v>3.1943588897300796</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>0.13159999999999999</v>
+      </c>
+      <c r="C41">
+        <v>7.8194999999999997</v>
+      </c>
+      <c r="D41">
+        <v>7.8194999999999997</v>
+      </c>
+      <c r="E41">
+        <v>0.26989999999999997</v>
+      </c>
+      <c r="F41">
+        <v>0.26989999999999997</v>
+      </c>
+      <c r="G41">
+        <v>38.971387460000003</v>
+      </c>
+      <c r="H41">
+        <v>-39.013188020000001</v>
+      </c>
+      <c r="I41">
+        <v>23.834127729999999</v>
+      </c>
+      <c r="J41">
+        <v>29.616422310000001</v>
+      </c>
+      <c r="K41">
+        <v>28.942685430000001</v>
+      </c>
+      <c r="L41">
+        <v>44.409570619999997</v>
+      </c>
+      <c r="M41">
+        <v>4.3909014800000001</v>
+      </c>
+      <c r="N41">
+        <v>46.63022222</v>
+      </c>
+      <c r="O41">
+        <v>2.5160814399999998</v>
+      </c>
+      <c r="P41">
+        <v>0.54059999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>0.1229</v>
+      </c>
+      <c r="C42">
+        <v>7.2962999999999996</v>
+      </c>
+      <c r="D42">
+        <v>7.2962999999999996</v>
+      </c>
+      <c r="E42">
+        <v>0.26960000000000001</v>
+      </c>
+      <c r="F42">
+        <v>0.26960000000000001</v>
+      </c>
+      <c r="G42">
+        <v>41.388559989999997</v>
+      </c>
+      <c r="H42">
+        <v>-41.43048812</v>
+      </c>
+      <c r="I42">
+        <v>29.543287110000001</v>
+      </c>
+      <c r="J42">
+        <v>31.695888950000001</v>
+      </c>
+      <c r="K42">
+        <v>5.87946846</v>
+      </c>
+      <c r="L42">
+        <v>21.301041560000002</v>
+      </c>
+      <c r="M42">
+        <v>4.6600329699999996</v>
+      </c>
+      <c r="N42">
+        <v>46.63022222</v>
+      </c>
+      <c r="O42">
+        <v>0.64702731000000002</v>
+      </c>
+      <c r="P42">
+        <v>0.1132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" t="s">
+        <v>28</v>
+      </c>
+      <c r="P44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="C45">
+        <v>8.6292000000000009</v>
+      </c>
+      <c r="D45">
+        <v>8.6292000000000009</v>
+      </c>
+      <c r="E45">
+        <v>0.27039999999999997</v>
+      </c>
+      <c r="F45">
+        <v>0.27039999999999997</v>
+      </c>
+      <c r="G45">
+        <v>35.815448510000003</v>
+      </c>
+      <c r="H45">
+        <v>-35.857095280000003</v>
+      </c>
+      <c r="I45">
+        <v>19.997105860000001</v>
+      </c>
+      <c r="J45">
+        <v>20.763549770000001</v>
+      </c>
+      <c r="K45">
+        <v>78.328572730000005</v>
+      </c>
+      <c r="L45">
+        <v>94.196285529999997</v>
+      </c>
+      <c r="M45">
+        <v>4.0402698399999997</v>
+      </c>
+      <c r="N45">
+        <v>46.63022222</v>
+      </c>
+      <c r="O45">
+        <v>5.6342750199999996</v>
+      </c>
+      <c r="P45">
+        <v>1.3912</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>20</v>
+      </c>
+      <c r="J46">
+        <f>(I46-I45)/(I47-I45)*(J47-J45)+J45</f>
+        <v>20.766224346593038</v>
+      </c>
+      <c r="K46">
+        <f>(I46-I45)/(I47-I45)*(K47-K45)+K45</f>
+        <v>78.303439945741189</v>
+      </c>
+      <c r="L46">
+        <f>(J46-J45)/(J47-J45)*(L47-L45)+L45</f>
+        <v>94.171880783716091</v>
+      </c>
+      <c r="M46">
+        <f>(K46-K45)/(K47-K45)*(M47-M45)+M45</f>
+        <v>4.0404295241453232</v>
+      </c>
+      <c r="O46">
+        <f>(M46-M45)/(M47-M45)*(O47-O45)+O45</f>
+        <v>5.6331523310359417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="C47">
+        <v>8.3562999999999992</v>
+      </c>
+      <c r="D47">
+        <v>8.3562999999999992</v>
+      </c>
+      <c r="E47">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="F47">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="G47">
+        <v>36.809922919999998</v>
+      </c>
+      <c r="H47">
+        <v>-36.851616300000003</v>
+      </c>
+      <c r="I47">
+        <v>21.997757969999999</v>
+      </c>
+      <c r="J47">
+        <v>22.612422769999998</v>
+      </c>
+      <c r="K47">
+        <v>60.954859689999999</v>
+      </c>
+      <c r="L47">
+        <v>77.325848320000006</v>
+      </c>
+      <c r="M47">
+        <v>4.1506558</v>
+      </c>
+      <c r="N47">
+        <v>46.63022222</v>
+      </c>
+      <c r="O47">
+        <v>4.8581860800000003</v>
+      </c>
+      <c r="P47">
+        <v>1.0954999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48">
+        <v>0.1361</v>
+      </c>
+      <c r="C48">
+        <v>8.0862999999999996</v>
+      </c>
+      <c r="D48">
+        <v>8.0862999999999996</v>
+      </c>
+      <c r="E48">
+        <v>0.27010000000000001</v>
+      </c>
+      <c r="F48">
+        <v>0.27010000000000001</v>
+      </c>
+      <c r="G48">
+        <v>37.860678749999998</v>
+      </c>
+      <c r="H48">
+        <v>-37.902423310000003</v>
+      </c>
+      <c r="I48">
+        <v>23.99833009</v>
+      </c>
+      <c r="J48">
+        <v>24.477264640000001</v>
+      </c>
+      <c r="K48">
+        <v>45.559388339999998</v>
+      </c>
+      <c r="L48">
+        <v>62.123012070000001</v>
+      </c>
+      <c r="M48">
+        <v>4.2673939699999996</v>
+      </c>
+      <c r="N48">
+        <v>46.63022222</v>
+      </c>
+      <c r="O48">
+        <v>3.9903013700000001</v>
+      </c>
+      <c r="P48">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50" t="s">
+        <v>27</v>
+      </c>
+      <c r="O50" t="s">
+        <v>28</v>
+      </c>
+      <c r="P50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="C52">
+        <v>8.3562999999999992</v>
+      </c>
+      <c r="D52">
+        <v>8.3562999999999992</v>
+      </c>
+      <c r="E52">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="F52">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="G52">
+        <v>36.809922919999998</v>
+      </c>
+      <c r="H52">
+        <v>-36.851616300000003</v>
+      </c>
+      <c r="I52">
+        <v>19.46743683</v>
+      </c>
+      <c r="J52">
+        <v>25.767116819999998</v>
+      </c>
+      <c r="K52">
+        <v>58.641350009999996</v>
+      </c>
+      <c r="L52">
+        <v>73.96573574</v>
+      </c>
+      <c r="M52">
+        <v>4.1506558</v>
+      </c>
+      <c r="N52">
+        <v>46.63022222</v>
+      </c>
+      <c r="O52">
+        <v>4.0986115400000003</v>
+      </c>
+      <c r="P52">
+        <v>1.0685</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>20</v>
+      </c>
+      <c r="J53">
+        <f>(I53-I52)/(I54-I52)*(J54-J52)+J52</f>
+        <v>26.027007761627061</v>
+      </c>
+      <c r="K53">
+        <f>(I53-I52)/(I54-I52)*(K54-K52)+K52</f>
+        <v>55.737452274604628</v>
+      </c>
+      <c r="L53">
+        <f>(J53-J52)/(J54-J52)*(L54-L52)+L52</f>
+        <v>71.122423068180382</v>
+      </c>
+      <c r="M53">
+        <f>(K53-K52)/(K54-K52)*(M54-M52)+M52</f>
+        <v>4.1751405365188745</v>
+      </c>
+      <c r="O53">
+        <f>(M53-M52)/(M54-M52)*(O54-O52)+O52</f>
+        <v>3.9585021128018969</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54">
+        <v>0.13159999999999999</v>
+      </c>
+      <c r="C54">
+        <v>7.8194999999999997</v>
+      </c>
+      <c r="D54">
+        <v>7.8194999999999997</v>
+      </c>
+      <c r="E54">
+        <v>0.26989999999999997</v>
+      </c>
+      <c r="F54">
+        <v>0.26989999999999997</v>
+      </c>
+      <c r="G54">
+        <v>38.971387460000003</v>
+      </c>
+      <c r="H54">
+        <v>-39.013188020000001</v>
+      </c>
+      <c r="I54">
+        <v>24.69297809</v>
+      </c>
+      <c r="J54">
+        <v>28.317182079999998</v>
+      </c>
+      <c r="K54">
+        <v>30.148134020000001</v>
+      </c>
+      <c r="L54">
+        <v>46.066983970000003</v>
+      </c>
+      <c r="M54">
+        <v>4.3909014800000001</v>
+      </c>
+      <c r="N54">
+        <v>46.63022222</v>
+      </c>
+      <c r="O54">
+        <v>2.7238495700000001</v>
+      </c>
+      <c r="P54">
+        <v>0.56089999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56" t="s">
+        <v>25</v>
+      </c>
+      <c r="M56" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" t="s">
+        <v>27</v>
+      </c>
+      <c r="O56" t="s">
+        <v>28</v>
+      </c>
+      <c r="P56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="C57">
+        <v>8.6292000000000009</v>
+      </c>
+      <c r="D57">
+        <v>8.6292000000000009</v>
+      </c>
+      <c r="E57">
+        <v>0.27039999999999997</v>
+      </c>
+      <c r="F57">
+        <v>0.27039999999999997</v>
+      </c>
+      <c r="G57">
+        <v>35.815448510000003</v>
+      </c>
+      <c r="H57">
+        <v>-35.857095280000003</v>
+      </c>
+      <c r="I57">
+        <v>19.869225879999998</v>
+      </c>
+      <c r="J57">
+        <v>20.91723073</v>
+      </c>
+      <c r="K57">
+        <v>78.246341630000003</v>
+      </c>
+      <c r="L57">
+        <v>94.068760429999998</v>
+      </c>
+      <c r="M57">
+        <v>4.0402698399999997</v>
+      </c>
+      <c r="N57">
+        <v>46.63022222</v>
+      </c>
+      <c r="O57">
+        <v>5.58979581</v>
+      </c>
+      <c r="P57">
+        <v>1.3908</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>20</v>
+      </c>
+      <c r="J58">
+        <f>(I58-I57)/(I59-I57)*(J59-J57)+J57</f>
+        <v>21.034609964937562</v>
+      </c>
+      <c r="K58">
+        <f>(I58-I57)/(I59-I57)*(K59-K57)+K57</f>
+        <v>77.127066826634817</v>
+      </c>
+      <c r="L58">
+        <f>(J58-J57)/(J59-J57)*(L59-L57)+L57</f>
+        <v>92.982501444355862</v>
+      </c>
+      <c r="M58">
+        <f>(K58-K57)/(K59-K57)*(M59-M57)+M57</f>
+        <v>4.0473841941746755</v>
+      </c>
+      <c r="O58">
+        <f>(M58-M57)/(M59-M57)*(O59-O57)+O57</f>
+        <v>5.5407318941445505</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="C59">
+        <v>8.3562999999999992</v>
+      </c>
+      <c r="D59">
+        <v>8.3562999999999992</v>
+      </c>
+      <c r="E59">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="F59">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="G59">
+        <v>36.809922919999998</v>
+      </c>
+      <c r="H59">
+        <v>-36.851616300000003</v>
+      </c>
+      <c r="I59">
+        <v>21.898310519999999</v>
+      </c>
+      <c r="J59">
+        <v>22.738481010000001</v>
+      </c>
+      <c r="K59">
+        <v>60.87973032</v>
+      </c>
+      <c r="L59">
+        <v>77.214420880000006</v>
+      </c>
+      <c r="M59">
+        <v>4.1506558</v>
+      </c>
+      <c r="N59">
+        <v>46.63022222</v>
+      </c>
+      <c r="O59">
+        <v>4.8285225699999996</v>
+      </c>
+      <c r="P59">
+        <v>1.0948</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60">
+        <v>0.1361</v>
+      </c>
+      <c r="C60">
+        <v>8.0862999999999996</v>
+      </c>
+      <c r="D60">
+        <v>8.0862999999999996</v>
+      </c>
+      <c r="E60">
+        <v>0.27010000000000001</v>
+      </c>
+      <c r="F60">
+        <v>0.27010000000000001</v>
+      </c>
+      <c r="G60">
+        <v>37.860678749999998</v>
+      </c>
+      <c r="H60">
+        <v>-37.902423310000003</v>
+      </c>
+      <c r="I60">
+        <v>23.924004400000001</v>
+      </c>
+      <c r="J60">
+        <v>24.578458229999999</v>
+      </c>
+      <c r="K60">
+        <v>45.493220440000002</v>
+      </c>
+      <c r="L60">
+        <v>62.029279379999998</v>
+      </c>
+      <c r="M60">
+        <v>4.2673939699999996</v>
+      </c>
+      <c r="N60">
+        <v>46.63022222</v>
+      </c>
+      <c r="O60">
+        <v>3.9710884000000002</v>
+      </c>
+      <c r="P60">
+        <v>0.82909999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3176,7 +6757,7 @@
         <v>46.403837345715175</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>9.9689159560224616E-2</v>
       </c>
@@ -3187,74 +6768,408 @@
         <v>52.019838038732011</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>0.15089155943323662</v>
+        <v>0.12258161232690723</v>
       </c>
       <c r="C7">
-        <v>25.172110367661812</v>
+        <v>26.027007761627061</v>
       </c>
       <c r="D7">
-        <v>59.630554147226967</v>
+        <v>55.737452274604628</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>0.19667345647669798</v>
+        <v>0.15089155943323662</v>
       </c>
       <c r="C8">
-        <v>24.154427087865734</v>
+        <v>25.172110367661812</v>
       </c>
       <c r="D8">
-        <v>63.667453796574343</v>
+        <v>59.630554147226967</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>0.24955010852113035</v>
+        <v>0.19667345647669798</v>
       </c>
       <c r="C9">
-        <v>23.372791450638402</v>
+        <v>24.154427087865734</v>
       </c>
       <c r="D9">
-        <v>66.759680935049474</v>
+        <v>63.667453796574343</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>0.50619105735394543</v>
+        <v>0.24955010852113035</v>
       </c>
       <c r="C10">
-        <v>21.774023087995868</v>
+        <v>23.372791450638402</v>
       </c>
       <c r="D10">
-        <v>73.873869526920842</v>
+        <v>66.759680935049474</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>0.75179217030317935</v>
+        <v>0.50619105735394543</v>
       </c>
       <c r="C11">
-        <v>20.766224346593038</v>
+        <v>21.774023087995868</v>
       </c>
       <c r="D11">
-        <v>78.303439945741189</v>
+        <v>73.873869526920842</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>0.99490136985639299</v>
+        <v>0.75179217030317935</v>
       </c>
       <c r="C12">
         <v>21.034609964937562</v>
       </c>
       <c r="D12">
         <v>77.127066826634817</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0.99490136985639299</v>
+      </c>
+      <c r="C13">
+        <v>20.766224346593038</v>
+      </c>
+      <c r="D13">
+        <v>78.303439945741189</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>3.9613888887568227E-2</v>
+      </c>
+      <c r="B1">
+        <v>32.115476507150689</v>
+      </c>
+      <c r="C1">
+        <v>32.567757365060004</v>
+      </c>
+      <c r="D1">
+        <v>4.3233432875830502</v>
+      </c>
+      <c r="E1">
+        <v>2.2104246900597877</v>
+      </c>
+      <c r="F1">
+        <v>46.441963097647786</v>
+      </c>
+      <c r="G1">
+        <f>F1-C1-D1</f>
+        <v>9.5508624450047321</v>
+      </c>
+      <c r="H1">
+        <f>C1/G1</f>
+        <v>3.4099284282011109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5.0843311794001367E-2</v>
+      </c>
+      <c r="B2">
+        <v>30.687559741203781</v>
+      </c>
+      <c r="C2">
+        <v>37.94746179871953</v>
+      </c>
+      <c r="D2">
+        <v>4.2917600801502989</v>
+      </c>
+      <c r="E2">
+        <v>2.570380208224865</v>
+      </c>
+      <c r="F2">
+        <v>52.212784324977491</v>
+      </c>
+      <c r="G2">
+        <f>F2-C2-D2</f>
+        <v>9.9735624461076622</v>
+      </c>
+      <c r="H2">
+        <f>C2/G2</f>
+        <v>3.8048051540028323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7.5328264261367961E-2</v>
+      </c>
+      <c r="B3">
+        <v>28.478717816108304</v>
+      </c>
+      <c r="C3">
+        <v>46.403837345715175</v>
+      </c>
+      <c r="D3">
+        <v>4.2384402076811281</v>
+      </c>
+      <c r="E3">
+        <v>3.1943588897300796</v>
+      </c>
+      <c r="F3">
+        <v>61.236835461148232</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">F3-C3-D3</f>
+        <v>10.594557907751929</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="1">C3/G3</f>
+        <v>4.3799692020902512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9.9689159560224616E-2</v>
+      </c>
+      <c r="B4">
+        <v>27.009629155131325</v>
+      </c>
+      <c r="C4">
+        <v>52.019838038732011</v>
+      </c>
+      <c r="D4">
+        <v>4.2007994465205503</v>
+      </c>
+      <c r="E4">
+        <v>3.6457211736522885</v>
+      </c>
+      <c r="F4">
+        <v>67.198228434730709</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>10.977590949478147</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>4.7387298614187232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.12258161232690723</v>
+      </c>
+      <c r="B5">
+        <v>26.027007761627061</v>
+      </c>
+      <c r="C5">
+        <v>55.737452274604628</v>
+      </c>
+      <c r="D5">
+        <v>4.1751405365188745</v>
+      </c>
+      <c r="E5">
+        <v>3.9585021128018969</v>
+      </c>
+      <c r="F5">
+        <v>71.122423068180382</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>11.209830257056879</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>4.9721941364381017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.15089155943323662</v>
+      </c>
+      <c r="B6">
+        <v>25.172110367661812</v>
+      </c>
+      <c r="C6">
+        <v>59.630554147226967</v>
+      </c>
+      <c r="D6">
+        <v>4.154875504576669</v>
+      </c>
+      <c r="E6">
+        <v>4.1805248950722991</v>
+      </c>
+      <c r="F6">
+        <v>75.075513010205739</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>11.290083358402104</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>5.2816752768127069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.19667345647669798</v>
+      </c>
+      <c r="B7">
+        <v>24.154427087865734</v>
+      </c>
+      <c r="C7">
+        <v>63.667453796574343</v>
+      </c>
+      <c r="D7">
+        <v>4.1281089282263137</v>
+      </c>
+      <c r="E7">
+        <v>4.5134344017201942</v>
+      </c>
+      <c r="F7">
+        <v>79.273673172123054</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>11.478110447322397</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>5.5468584388318574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.24955010852113035</v>
+      </c>
+      <c r="B8">
+        <v>23.372791450638402</v>
+      </c>
+      <c r="C8">
+        <v>66.759680935049474</v>
+      </c>
+      <c r="D8">
+        <v>4.1073039062547503</v>
+      </c>
+      <c r="E8">
+        <v>4.7759356144959497</v>
+      </c>
+      <c r="F8">
+        <v>82.483969105952582</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>11.616984264648359</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>5.7467307705843966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.50619105735394543</v>
+      </c>
+      <c r="B9">
+        <v>21.774023087995868</v>
+      </c>
+      <c r="C9">
+        <v>73.873869526920842</v>
+      </c>
+      <c r="D9">
+        <v>4.0665238785365529</v>
+      </c>
+      <c r="E9">
+        <v>5.2898015271415861</v>
+      </c>
+      <c r="F9">
+        <v>89.690184262439033</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>11.749790856981637</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>6.2872497413879964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.75179217030317935</v>
+      </c>
+      <c r="B10">
+        <v>21.034609964937562</v>
+      </c>
+      <c r="C10">
+        <v>77.127066826634817</v>
+      </c>
+      <c r="D10">
+        <v>4.0473841941746755</v>
+      </c>
+      <c r="E10">
+        <v>5.5407318941445505</v>
+      </c>
+      <c r="F10">
+        <v>92.982501444355862</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>11.808050423546369</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>6.5317358971330401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.99490136985639299</v>
+      </c>
+      <c r="B11">
+        <v>20.766224346593038</v>
+      </c>
+      <c r="C11">
+        <v>78.303439945741189</v>
+      </c>
+      <c r="D11">
+        <v>4.0404295241453232</v>
+      </c>
+      <c r="E11">
+        <v>5.6331523310359417</v>
+      </c>
+      <c r="F11">
+        <v>94.171880783716091</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>11.828011313829577</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>6.6201695169319832</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>